--- a/src/test/resources/Documents/33216/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33216/Actual/JobPlanning.xlsx
@@ -65,31 +65,19 @@
     <t>Bookmark  2p</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Digital Print F 4x0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">169-Press Approval Task </t>
-  </si>
-  <si>
-    <t>740</t>
+    <t>252-HP 10000 Press</t>
+  </si>
+  <si>
+    <t>719</t>
   </si>
   <si>
     <t>Not allocated</t>
-  </si>
-  <si>
-    <t>Press Approval Task</t>
-  </si>
-  <si>
-    <t>Digital Print F 4x0</t>
-  </si>
-  <si>
-    <t>252-HP 10000 Press</t>
-  </si>
-  <si>
-    <t>719</t>
   </si>
   <si>
     <t>Cut</t>
@@ -106,6 +94,18 @@
 405-54" Polar 137EMC Cutter
 402-45" Polar 115EMC Cutter
 403-54" Polar 137ED Cutter</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169-Press Approval Task </t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>Press Approval Task</t>
   </si>
   <si>
     <t>Bookmark 2p Packed</t>
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s" s="14">
         <v>19</v>
@@ -669,22 +669,22 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="C3" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="18">
+      <c r="E3" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="21">
         <v>24</v>
-      </c>
-      <c r="E3" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s" s="21">
-        <v>25</v>
       </c>
       <c r="H3" t="s" s="22">
         <v>18</v>
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="L3" t="s" s="26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -740,10 +740,10 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s" s="40">
         <v>27</v>
-      </c>
-      <c r="M4" t="s" s="40">
-        <v>29</v>
       </c>
     </row>
     <row r="5">

--- a/src/test/resources/Documents/33216/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33216/Actual/JobPlanning.xlsx
@@ -65,28 +65,19 @@
     <t>Bookmark  2p</t>
   </si>
   <si>
-    <t>Digital Print F 4x0</t>
+    <t>Cut</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>252-HP 10000 Press</t>
-  </si>
-  <si>
-    <t>719</t>
+    <t>406-45" Polar 115ED Cutter</t>
+  </si>
+  <si>
+    <t>715</t>
   </si>
   <si>
     <t>Not allocated</t>
-  </si>
-  <si>
-    <t>Cut</t>
-  </si>
-  <si>
-    <t>406-45" Polar 115ED Cutter</t>
-  </si>
-  <si>
-    <t>715</t>
   </si>
   <si>
     <t>406-45" Polar 115ED Cutter
@@ -106,6 +97,15 @@
   </si>
   <si>
     <t>Press Approval Task</t>
+  </si>
+  <si>
+    <t>Digital Print F 4x0</t>
+  </si>
+  <si>
+    <t>252-HP 10000 Press</t>
+  </si>
+  <si>
+    <t>719</t>
   </si>
   <si>
     <t>Bookmark 2p Packed</t>
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="M2" t="s" s="14">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -669,13 +669,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="17">
         <v>18</v>
       </c>
       <c r="D3" t="s" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s" s="19">
         <v>18</v>
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s" s="22">
         <v>18</v>
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="L3" t="s" s="26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s" s="27">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -710,13 +710,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s" s="29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="30">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s" s="32">
         <v>18</v>
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s" s="34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s" s="35">
         <v>18</v>
@@ -740,10 +740,10 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">

--- a/src/test/resources/Documents/33216/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33216/Actual/JobPlanning.xlsx
@@ -65,19 +65,28 @@
     <t>Bookmark  2p</t>
   </si>
   <si>
+    <t>Digital Print F 4x0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>252-HP 10000 Press</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
     <t>Cut</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>406-45" Polar 115ED Cutter</t>
   </si>
   <si>
     <t>715</t>
-  </si>
-  <si>
-    <t>Not allocated</t>
   </si>
   <si>
     <t>406-45" Polar 115ED Cutter
@@ -97,15 +106,6 @@
   </si>
   <si>
     <t>Press Approval Task</t>
-  </si>
-  <si>
-    <t>Digital Print F 4x0</t>
-  </si>
-  <si>
-    <t>252-HP 10000 Press</t>
-  </si>
-  <si>
-    <t>719</t>
   </si>
   <si>
     <t>Bookmark 2p Packed</t>
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="M2" t="s" s="14">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -669,22 +669,22 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="C3" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="18">
+      <c r="E3" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="21">
         <v>24</v>
-      </c>
-      <c r="E3" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s" s="21">
-        <v>25</v>
       </c>
       <c r="H3" t="s" s="22">
         <v>18</v>
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="L3" t="s" s="26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -710,22 +710,22 @@
         <v>16</v>
       </c>
       <c r="B4" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="31">
         <v>27</v>
       </c>
-      <c r="C4" t="s" s="30">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s" s="31">
+      <c r="E4" t="s" s="32">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="33">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="34">
         <v>28</v>
-      </c>
-      <c r="E4" t="s" s="32">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="33">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s" s="34">
-        <v>29</v>
       </c>
       <c r="H4" t="s" s="35">
         <v>18</v>
@@ -740,10 +740,10 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">

--- a/src/test/resources/Documents/33216/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33216/Actual/JobPlanning.xlsx
@@ -65,28 +65,19 @@
     <t>Bookmark  2p</t>
   </si>
   <si>
-    <t>Digital Print F 4x0</t>
+    <t>Cut</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>252-HP 10000 Press</t>
-  </si>
-  <si>
-    <t>719</t>
+    <t>406-45" Polar 115ED Cutter</t>
+  </si>
+  <si>
+    <t>715</t>
   </si>
   <si>
     <t>Not allocated</t>
-  </si>
-  <si>
-    <t>Cut</t>
-  </si>
-  <si>
-    <t>406-45" Polar 115ED Cutter</t>
-  </si>
-  <si>
-    <t>715</t>
   </si>
   <si>
     <t>406-45" Polar 115ED Cutter
@@ -108,9 +99,27 @@
     <t>Press Approval Task</t>
   </si>
   <si>
+    <t>Digital Print F 4x0</t>
+  </si>
+  <si>
+    <t>252-HP 10000 Press</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
     <t>Bookmark 2p Packed</t>
   </si>
   <si>
+    <t>Pallet</t>
+  </si>
+  <si>
+    <t>602-Skid Wrap Operator</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Boxing</t>
   </si>
   <si>
@@ -118,15 +127,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>Pallet</t>
-  </si>
-  <si>
-    <t>602-Skid Wrap Operator</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="M2" t="s" s="14">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -669,13 +669,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="17">
         <v>18</v>
       </c>
       <c r="D3" t="s" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s" s="19">
         <v>18</v>
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s" s="22">
         <v>18</v>
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="L3" t="s" s="26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s" s="27">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -710,13 +710,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s" s="29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="30">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s" s="32">
         <v>18</v>
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s" s="34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s" s="35">
         <v>18</v>
@@ -740,10 +740,10 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">

--- a/src/test/resources/Documents/33216/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33216/Actual/JobPlanning.xlsx
@@ -111,6 +111,15 @@
     <t>Bookmark 2p Packed</t>
   </si>
   <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>481-PackSize Boxmaker</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Pallet</t>
   </si>
   <si>
@@ -118,15 +127,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Boxing</t>
-  </si>
-  <si>
-    <t>481-PackSize Boxmaker</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
